--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H2">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N2">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O2">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P2">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q2">
-        <v>33928.74731311313</v>
+        <v>54664.68234504798</v>
       </c>
       <c r="R2">
-        <v>305358.7258180182</v>
+        <v>491982.1411054318</v>
       </c>
       <c r="S2">
-        <v>0.1974619999748704</v>
+        <v>0.2450032389012037</v>
       </c>
       <c r="T2">
-        <v>0.1974619999748704</v>
+        <v>0.2450032389012038</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H3">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J3">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>169.486152</v>
       </c>
       <c r="O3">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P3">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q3">
-        <v>4679.540264130981</v>
+        <v>5512.659895933022</v>
       </c>
       <c r="R3">
-        <v>42115.86237717883</v>
+        <v>49613.9390633972</v>
       </c>
       <c r="S3">
-        <v>0.02723446789799715</v>
+        <v>0.02470735164871427</v>
       </c>
       <c r="T3">
-        <v>0.02723446789799716</v>
+        <v>0.02470735164871428</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="H4">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="I4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="J4">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>572.830414</v>
       </c>
       <c r="O4">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P4">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q4">
-        <v>15815.94103824966</v>
+        <v>18631.72426280886</v>
       </c>
       <c r="R4">
-        <v>142343.4693442469</v>
+        <v>167685.5183652797</v>
       </c>
       <c r="S4">
-        <v>0.09204723416624279</v>
+        <v>0.08350607000492039</v>
       </c>
       <c r="T4">
-        <v>0.09204723416624279</v>
+        <v>0.0835060700049204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J5">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N5">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O5">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P5">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q5">
-        <v>62610.51164570916</v>
+        <v>85630.45373069137</v>
       </c>
       <c r="R5">
-        <v>563494.6048113824</v>
+        <v>770674.0835762223</v>
       </c>
       <c r="S5">
-        <v>0.3643870707903615</v>
+        <v>0.3837896355122529</v>
       </c>
       <c r="T5">
-        <v>0.3643870707903616</v>
+        <v>0.3837896355122529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J6">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>169.486152</v>
       </c>
       <c r="O6">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P6">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q6">
         <v>8635.403114063705</v>
@@ -818,10 +818,10 @@
         <v>77718.62802657334</v>
       </c>
       <c r="S6">
-        <v>0.05025720383237414</v>
+        <v>0.03870326582726055</v>
       </c>
       <c r="T6">
-        <v>0.05025720383237414</v>
+        <v>0.03870326582726055</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="J7">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>572.830414</v>
       </c>
       <c r="O7">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P7">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q7">
         <v>29185.99238058105</v>
@@ -880,10 +880,10 @@
         <v>262673.9314252294</v>
       </c>
       <c r="S7">
-        <v>0.1698596288726955</v>
+        <v>0.1308095530246136</v>
       </c>
       <c r="T7">
-        <v>0.1698596288726955</v>
+        <v>0.1308095530246136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>77.473134</v>
       </c>
       <c r="I8">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J8">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>409.6166503333334</v>
+        <v>560.2199806666666</v>
       </c>
       <c r="N8">
-        <v>1228.849951</v>
+        <v>1680.659942</v>
       </c>
       <c r="O8">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529325</v>
       </c>
       <c r="P8">
-        <v>0.6234125531262766</v>
+        <v>0.6936344353529326</v>
       </c>
       <c r="Q8">
-        <v>10578.09521330183</v>
+        <v>14467.33254388869</v>
       </c>
       <c r="R8">
-        <v>95202.85691971645</v>
+        <v>130205.9928949982</v>
       </c>
       <c r="S8">
-        <v>0.06156348236104468</v>
+        <v>0.06484156093947589</v>
       </c>
       <c r="T8">
-        <v>0.06156348236104468</v>
+        <v>0.06484156093947591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>77.473134</v>
       </c>
       <c r="I9">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J9">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>169.486152</v>
       </c>
       <c r="O9">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="P9">
-        <v>0.08598266586728959</v>
+        <v>0.06994956469466522</v>
       </c>
       <c r="Q9">
         <v>1458.958151671152</v>
@@ -1004,10 +1004,10 @@
         <v>13130.62336504037</v>
       </c>
       <c r="S9">
-        <v>0.008490994136918296</v>
+        <v>0.006538947218690403</v>
       </c>
       <c r="T9">
-        <v>0.008490994136918296</v>
+        <v>0.006538947218690404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>77.473134</v>
       </c>
       <c r="I10">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="J10">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>572.830414</v>
       </c>
       <c r="O10">
-        <v>0.2906047810064339</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="P10">
-        <v>0.2906047810064338</v>
+        <v>0.2364159999524024</v>
       </c>
       <c r="Q10">
         <v>4930.996380344164</v>
@@ -1066,10 +1066,10 @@
         <v>44378.96742309748</v>
       </c>
       <c r="S10">
-        <v>0.02869791796749554</v>
+        <v>0.02210037692286844</v>
       </c>
       <c r="T10">
-        <v>0.02869791796749554</v>
+        <v>0.02210037692286844</v>
       </c>
     </row>
   </sheetData>
